--- a/Income/TDOC_inc.xlsx
+++ b/Income/TDOC_inc.xlsx
@@ -1534,16 +1534,16 @@
         <v>0.5855</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.5863</v>
+        <v>0.5977</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.6027</v>
+        <v>0.6165</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.6239</v>
+        <v>0.6402</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.6487</v>
+        <v>0.6666</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.6745</v>
@@ -1894,16 +1894,16 @@
         <v>-0.067</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.0739</v>
+        <v>0.0728</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0.0695</v>
+        <v>0.0682</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.0355</v>
+        <v>0.034</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.036</v>
+        <v>0.0343</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0.0074</v>
@@ -2622,16 +2622,16 @@
         <v>-0.3006</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.0356</v>
+        <v>0.0393</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.0068</v>
+        <v>0.0113</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>-0.0172</v>
+        <v>-0.0119</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>-0.024</v>
+        <v>-0.0182</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>-0.0269</v>
@@ -2712,16 +2712,16 @@
         <v>-0.0432</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.0978</v>
+        <v>0.0968</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.0901</v>
+        <v>0.0888</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.0556</v>
+        <v>0.054</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.0557</v>
+        <v>0.054</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0.0274</v>
